--- a/fumia_tree.xlsx
+++ b/fumia_tree.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="236">
   <si>
     <t>1st Level</t>
   </si>
@@ -840,6 +840,22 @@
   </si>
   <si>
     <t>(WNT, PI3K, p53/PTEN, Ecadh, GFs, Gli, Snail) = (1, 1, 0, 1, 0, 0, 0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(RTK, PI3K, p53/PTEN, Ecadh, GFs, Gli, Snail) = (1, 1, 0, 1, 0, 0, 0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(WNT, Ras, p53/PTEN, Ecadh, GFs, Gli, Snail) = (1, 1, 0, 1, 0, 0, 0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(WNT, RTK, p53/PTEN, Ecadh, GFs, Gli, Snail) = (1, 1, 0, 1, 0, 0, 0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(WNT, NF1, p53/PTEN, Ecadh, GFs, Gli, Snail) = (1, 0, 0, 1, 0, 0, 0)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,8 +942,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -956,7 +976,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
@@ -967,6 +987,8 @@
     <cellStyle name="열어 본 하이퍼링크" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
@@ -976,6 +998,8 @@
     <cellStyle name="하이퍼링크" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="21" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1250,33 +1274,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA186"/>
+  <dimension ref="A1:AA190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M74" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="M76" zoomScale="75" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1973,25 +1993,25 @@
         <v>214</v>
       </c>
     </row>
-    <row r="81" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K81" s="4"/>
       <c r="O81" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K82" s="4"/>
       <c r="O82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="83" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K83" s="4"/>
       <c r="N83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K84" s="4"/>
       <c r="M84" t="s">
         <v>187</v>
@@ -2000,7 +2020,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K85" s="4"/>
       <c r="N85" t="s">
         <v>221</v>
@@ -2009,19 +2029,19 @@
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K86" s="4"/>
       <c r="O86" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K87" s="4"/>
       <c r="O87" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K88" s="4"/>
       <c r="O88" t="s">
         <v>222</v>
@@ -2030,13 +2050,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K89" s="4"/>
       <c r="O89" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K90" s="4"/>
       <c r="N90" t="s">
         <v>220</v>
@@ -2045,7 +2065,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="91" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K91" s="4"/>
       <c r="O91" t="s">
         <v>229</v>
@@ -2053,131 +2073,132 @@
       <c r="P91" t="s">
         <v>230</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="Q91" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="92" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="R91" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K92" s="4"/>
-      <c r="O92" t="s">
+      <c r="S92" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K93" s="4"/>
+      <c r="S93" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="94" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K94" s="4"/>
+      <c r="S94" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K95" s="4"/>
+      <c r="O95" t="s">
+        <v>228</v>
+      </c>
+      <c r="P95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="96" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K99" s="4"/>
+      <c r="O99" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K93" s="4"/>
-      <c r="O93" t="s">
+    <row r="100" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K100" s="4"/>
+      <c r="O100" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K94" s="4"/>
-      <c r="O94" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="11:17" x14ac:dyDescent="0.25">
-      <c r="K96" s="4"/>
-    </row>
-    <row r="97" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K97" s="4"/>
-    </row>
-    <row r="98" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K98" s="4"/>
-    </row>
-    <row r="99" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K99" s="4"/>
-      <c r="N99" t="s">
+    <row r="101" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K102" s="4"/>
+      <c r="O102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K103" s="4"/>
+      <c r="N103" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K100" s="4"/>
-      <c r="N100" t="s">
+    <row r="104" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K104" s="4"/>
+      <c r="N104" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K101" s="4"/>
-      <c r="N101" t="s">
+    <row r="105" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K105" s="4"/>
+      <c r="N105" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K102" s="4"/>
-      <c r="N102" t="s">
+    <row r="106" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K106" s="4"/>
+      <c r="N106" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="103" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K103" s="4"/>
-      <c r="M103" t="s">
+    <row r="107" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K107" s="4"/>
+      <c r="M107" t="s">
         <v>185</v>
       </c>
-      <c r="N103" s="6"/>
-    </row>
-    <row r="104" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K104" s="4"/>
-      <c r="N104" s="6"/>
-    </row>
-    <row r="105" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K105" s="4"/>
-      <c r="M105" t="s">
+      <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K108" s="4"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K109" s="4"/>
+      <c r="M109" t="s">
         <v>138</v>
       </c>
-      <c r="N105" s="6"/>
-    </row>
-    <row r="106" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K106" s="4" t="s">
+      <c r="N109" s="6"/>
+    </row>
+    <row r="110" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K110" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="M106" s="3"/>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K107" s="4" t="s">
+      <c r="M110" s="3"/>
+      <c r="N110" s="6"/>
+    </row>
+    <row r="111" spans="11:15" x14ac:dyDescent="0.25">
+      <c r="K111" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="6"/>
-    </row>
-    <row r="108" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K108" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="6"/>
-    </row>
-    <row r="109" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K109" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="6"/>
-    </row>
-    <row r="110" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K110" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="6"/>
-    </row>
-    <row r="111" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K111" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="11:15" x14ac:dyDescent="0.25">
       <c r="K112" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -2185,397 +2206,429 @@
     </row>
     <row r="113" spans="8:14" x14ac:dyDescent="0.25">
       <c r="K113" s="4" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="6"/>
     </row>
     <row r="114" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J114" t="s">
-        <v>160</v>
-      </c>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
+      <c r="K114" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="6"/>
     </row>
     <row r="115" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J115" t="s">
-        <v>172</v>
-      </c>
-      <c r="L115" s="6"/>
+      <c r="K115" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L115" s="2"/>
       <c r="M115" s="2"/>
+      <c r="N115" s="6"/>
     </row>
     <row r="116" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J116" t="s">
-        <v>161</v>
-      </c>
-      <c r="L116" s="4"/>
+      <c r="K116" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L116" s="2"/>
       <c r="M116" s="2"/>
+      <c r="N116" s="6"/>
     </row>
     <row r="117" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J117" t="s">
-        <v>173</v>
-      </c>
-      <c r="K117" s="2"/>
-      <c r="L117" s="4"/>
+      <c r="K117" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L117" s="2"/>
       <c r="M117" s="2"/>
+      <c r="N117" s="6"/>
     </row>
     <row r="118" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J118" t="s">
-        <v>174</v>
-      </c>
-      <c r="K118" s="2"/>
+        <v>160</v>
+      </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2"/>
+      <c r="M118" s="4"/>
     </row>
     <row r="119" spans="8:14" x14ac:dyDescent="0.25">
       <c r="J119" t="s">
-        <v>175</v>
-      </c>
-      <c r="K119" s="2"/>
-      <c r="L119" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="L119" s="6"/>
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J120" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K120" s="2"/>
+      <c r="J120" t="s">
+        <v>161</v>
+      </c>
       <c r="L120" s="4"/>
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H121" t="s">
-        <v>63</v>
-      </c>
+      <c r="J121" t="s">
+        <v>173</v>
+      </c>
+      <c r="K121" s="2"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="2"/>
     </row>
     <row r="122" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H122" t="s">
-        <v>64</v>
-      </c>
+      <c r="J122" t="s">
+        <v>174</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="2"/>
     </row>
     <row r="123" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H123" t="s">
-        <v>65</v>
-      </c>
+      <c r="J123" t="s">
+        <v>175</v>
+      </c>
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2"/>
     </row>
     <row r="124" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H124" t="s">
-        <v>66</v>
-      </c>
+      <c r="J124" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K124" s="2"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="2"/>
     </row>
     <row r="125" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="126" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H145" t="s">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H146" t="s">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H147" t="s">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H148" t="s">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H150" t="s">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H152" t="s">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H153" t="s">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H154" t="s">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H155" t="s">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G156" t="s">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F157" t="s">
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F161" t="s">
         <v>86</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G161" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G158" t="s">
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
         <v>87</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H162" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H159" t="s">
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H160" t="s">
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H161" t="s">
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H162" t="s">
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G163" t="s">
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
         <v>91</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H167" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H164" t="s">
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H165" t="s">
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H166" t="s">
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H167" t="s">
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H168" t="s">
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H169" t="s">
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H170" t="s">
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H171" t="s">
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G172" t="s">
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
         <v>99</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H176" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H173" t="s">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H174" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H175" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="H176" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G177" t="s">
-        <v>103</v>
-      </c>
-      <c r="H177" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H178" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H179" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H180" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>103</v>
+      </c>
+      <c r="H181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H181" t="s">
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G182" t="s">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F183" t="s">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F187" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E184" t="s">
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D185" t="s">
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>33</v>
       </c>
     </row>
